--- a/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -609,27 +609,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 12,77</t>
+          <t>-6,75; 13,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 13,28</t>
+          <t>-2,12; 11,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 13,82</t>
+          <t>-1,32; 13,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 58,67</t>
+          <t>-20,4; 57,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 16,29</t>
+          <t>-2,2; 14,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 16,38</t>
+          <t>-1,3; 16,74</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-1,66%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 17,4</t>
+          <t>-5,11; 16,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 16,94</t>
+          <t>-3,02; 17,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,26</t>
+          <t>-6,28; 2,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 51,22</t>
+          <t>-11,02; 47,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 21,25</t>
+          <t>-3,22; 22,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,4</t>
+          <t>-6,44; 2,74</t>
         </is>
       </c>
     </row>
@@ -764,17 +764,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 13,71</t>
+          <t>-3,24; 14,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 7,0</t>
+          <t>-4,55; 8,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 13,07</t>
+          <t>2,51; 13,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 33,42</t>
+          <t>-6,21; 35,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 8,06</t>
+          <t>-4,76; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,57</t>
+          <t>2,71; 15,9</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 7,85</t>
+          <t>-11,27; 6,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,91</t>
+          <t>-3,79; 5,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,95</t>
+          <t>-2,16; 3,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 17,59</t>
+          <t>-20,92; 16,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,68</t>
+          <t>-4,02; 5,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,22</t>
+          <t>-2,19; 4,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 11,97</t>
+          <t>-6,14; 12,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 12,36</t>
+          <t>-0,3; 13,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 10,07</t>
+          <t>-1,65; 10,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 48,45</t>
+          <t>-19,32; 51,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 14,74</t>
+          <t>-0,3; 16,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,58</t>
+          <t>-1,71; 11,78</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 5,09</t>
+          <t>-13,4; 4,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 15,2</t>
+          <t>-2,47; 15,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,93</t>
+          <t>-0,92; 7,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 23,06</t>
+          <t>-38,57; 19,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 19,22</t>
+          <t>-2,66; 19,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 7,7</t>
+          <t>-0,92; 8,19</t>
         </is>
       </c>
     </row>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 5,86</t>
+          <t>-1,85; 5,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,01</t>
+          <t>0,49; 6,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,89</t>
+          <t>1,1; 5,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 16,43</t>
+          <t>-4,41; 16,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,88</t>
+          <t>0,53; 7,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,34</t>
+          <t>1,17; 5,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_1_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,12%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.315088341450345</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.092730361956111</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.845454152938067</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1212255531584758</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.05808104050060012</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.05282723273508288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,75; 13,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 11,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 13,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,4; 57,32</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 14,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 16,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.75130872014443</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.73568597267867</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.137896261531109</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2040121886706824</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.01887936712276956</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.01079298317468165</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.52201554004457</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.16500656564657</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.6645729827554</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5731995678287884</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.146811665459042</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1651856033255757</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,35%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 16,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 17,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 2,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 47,31</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 22,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 2,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.258821968729738</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.802774044992563</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.445732485562745</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1534884614320899</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.04285791692097869</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.01506949529416294</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.114776148484959</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.892446120774058</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.232265222435043</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1101774291007561</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.03046243437838014</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.06357925005707195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 14,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 8,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 13,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 35,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 9,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 15,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.87090580758924</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.87463460871331</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.834601092080295</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.4731381400536975</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2095529258844773</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.03001811423616404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +775,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,83%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,42%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.735608423174055</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8948597000548397</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.369401243248674</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1236312895704471</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.009679068483566332</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.0706391981296831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,27; 6,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 5,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 3,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-20,92; 16,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 5,91</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 4,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.237021073414528</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.868684592132562</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.923857796129882</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.06212015763829445</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.05064252261690277</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.02023732147164212</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.75786527168115</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.167883815232996</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.27706254323723</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.357571765030998</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.08236457261115684</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1567473276617949</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 12,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 13,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 10,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,32; 51,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 16,49</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 11,78</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.365364940800556</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.092561353294785</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.8805710278777301</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0282880640624507</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.0119353124515118</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.009205327901585889</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,51</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-15,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.27224084513816</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.21951675477344</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.009945380412207</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2092319364541503</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.03439935152268844</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.02046733071639978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-13,4; 4,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 15,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 7,37</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-38,57; 19,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 19,23</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 8,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.963733583783208</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.228849368467444</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.08001929539789</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1599754658161121</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.07136344075179199</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.04379204490746477</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +939,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.932544318806568</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.375026492651402</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.502196771276445</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.102234954865892</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.04822401312811935</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.03828639865220553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 5,95</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 6,26</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 5,19</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 16,56</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 7,18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 5,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.142368809106979</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.531654714248774</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.037910918538509</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1932073457217859</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.01630521630261184</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.02107111034050871</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.33183620722303</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.72075035545633</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.07662435934013</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.513939154613948</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1382417084853229</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.1180729832982495</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-4.513510303483192</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.899581951362996</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2.766691713298797</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1516384312621014</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.0436921994769533</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.02936456184541102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-13.40069204010159</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.598691569689421</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-1.192106996123916</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.385728267814938</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.02736336588067395</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.01221788199509011</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.861345088962418</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.78776710213633</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>7.024130949513596</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1965256158570033</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.1884021929605779</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.07718931172535541</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.940007541727301</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.003844389680477</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.943587584366048</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.05105260084334443</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.03329492418313493</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.03159313755086003</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.853543741734131</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2032933226679735</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.023779148766575</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.04406328879883641</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.002175661144914193</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.01098849484466196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.946954895083499</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.262394161203261</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.049831859454251</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.1655983356189174</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.07200637040787618</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.05529635354572034</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1184,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
